--- a/biology/Neurosciences/Erich_Jarvis/Erich_Jarvis.xlsx
+++ b/biology/Neurosciences/Erich_Jarvis/Erich_Jarvis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erich Jarvis est un professeur associé de neurobiologie à l'hôpital de l'université Duke. Il est le directeur d'une équipe de recherche qui étudie la neurobiologie de l'apprentissage vocal, un comportement à la base du langage parlé. Il étudie notamment les passereaux, les perroquets et perruches ainsi que les colibris.
-En 2002, la Fondation nationale pour la science récompensa Jarvis en lui attribuant le Alan T. Waterman Award (en)[1]. En 2005, il a reçu le National Institutes of Health Director's Pioneer Award (en)[2] qui octroie des 5 ans de financement aux chercheurs ayant une approche innovante en matière de recherche biomédicale. In 2008, Jarvis devint enquêteur au sein de l’Howard Hughes Medical Institute[3].
+En 2002, la Fondation nationale pour la science récompensa Jarvis en lui attribuant le Alan T. Waterman Award (en). En 2005, il a reçu le National Institutes of Health Director's Pioneer Award (en) qui octroie des 5 ans de financement aux chercheurs ayant une approche innovante en matière de recherche biomédicale. In 2008, Jarvis devint enquêteur au sein de l’Howard Hughes Medical Institute.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Erich Jarvis » (voir la liste des auteurs).</t>
         </is>
